--- a/Code/Results/Cases/Case_2_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_189/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.4356022786692</v>
+        <v>11.04316897735902</v>
       </c>
       <c r="C2">
-        <v>7.05406793525473</v>
+        <v>9.529429008432901</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.053761922553203</v>
+        <v>12.16791198099106</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>17.32307814015734</v>
+        <v>27.13523703743409</v>
       </c>
       <c r="H2">
-        <v>8.252434540801811</v>
+        <v>14.09162271049592</v>
       </c>
       <c r="I2">
-        <v>13.21137191446597</v>
+        <v>22.10366211504292</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.82294111733376</v>
+        <v>8.213575834162331</v>
       </c>
       <c r="L2">
-        <v>6.818467172398153</v>
+        <v>9.586326816507942</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.69123097507895</v>
+        <v>21.19383117810419</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.50491266302488</v>
+        <v>10.6995885704849</v>
       </c>
       <c r="C3">
-        <v>7.061928595374519</v>
+        <v>9.540705181381357</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.941137141990022</v>
+        <v>12.18492036722794</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>17.65549846675098</v>
+        <v>27.32840882419302</v>
       </c>
       <c r="H3">
-        <v>8.3949438309889</v>
+        <v>14.15005147322406</v>
       </c>
       <c r="I3">
-        <v>13.51392168412182</v>
+        <v>22.2231134193017</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.22068704378813</v>
+        <v>7.920408900012639</v>
       </c>
       <c r="L3">
-        <v>6.608412130743307</v>
+        <v>9.56803872377392</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.94116591287813</v>
+        <v>21.30633428474998</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.89948954932599</v>
+        <v>10.48361665991746</v>
       </c>
       <c r="C4">
-        <v>7.068495564278344</v>
+        <v>9.54847954306752</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.87646807583615</v>
+        <v>12.19776890279291</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>17.88381981912018</v>
+        <v>27.45546099089296</v>
       </c>
       <c r="H4">
-        <v>8.486534274565932</v>
+        <v>14.18799800524847</v>
       </c>
       <c r="I4">
-        <v>13.70785905270861</v>
+        <v>22.30057657730751</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.83332570455619</v>
+        <v>7.752130752249724</v>
       </c>
       <c r="L4">
-        <v>6.47906539796238</v>
+        <v>9.558358605380223</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.10426115255507</v>
+        <v>21.37965994831082</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.64421801430371</v>
+        <v>10.39447099811017</v>
       </c>
       <c r="C5">
-        <v>7.071605315393878</v>
+        <v>9.551862181734789</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.851254024405462</v>
+        <v>12.20360963937804</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>17.98259886274627</v>
+        <v>27.50935391524095</v>
       </c>
       <c r="H5">
-        <v>8.524871685578248</v>
+        <v>14.2039831692937</v>
       </c>
       <c r="I5">
-        <v>13.78891202174926</v>
+        <v>22.33318095241362</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.67115478267166</v>
+        <v>7.686700183262405</v>
       </c>
       <c r="L5">
-        <v>6.426339464817605</v>
+        <v>9.554806492871132</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.17306615573528</v>
+        <v>21.41060959123456</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.60131331681907</v>
+        <v>10.37960370474882</v>
       </c>
       <c r="C6">
-        <v>7.072147762719064</v>
+        <v>9.55243684031656</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.847136327585484</v>
+        <v>12.20461601829741</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>17.99933769061409</v>
+        <v>27.51843057665337</v>
       </c>
       <c r="H6">
-        <v>8.531298406551659</v>
+        <v>14.20666902530183</v>
       </c>
       <c r="I6">
-        <v>13.80249206500653</v>
+        <v>22.33865759496475</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.64396900753627</v>
+        <v>7.675783322455717</v>
       </c>
       <c r="L6">
-        <v>6.417585740748544</v>
+        <v>9.55424046660373</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.184630456868</v>
+        <v>21.41581332879068</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.89608152660191</v>
+        <v>10.48241883486052</v>
       </c>
       <c r="C7">
-        <v>7.06853575285561</v>
+        <v>9.54852429313137</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.876123404983655</v>
+        <v>12.19784522406672</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>17.8851292089581</v>
+        <v>27.45617924016707</v>
       </c>
       <c r="H7">
-        <v>8.487047220424596</v>
+        <v>14.18821147348513</v>
       </c>
       <c r="I7">
-        <v>13.70894401414464</v>
+        <v>22.30101208831493</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.83115594493331</v>
+        <v>7.751251889099764</v>
       </c>
       <c r="L7">
-        <v>6.478354277140119</v>
+        <v>9.558309106719548</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.10517969674218</v>
+        <v>21.38007301753582</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.12174218093904</v>
+        <v>10.92581461135019</v>
       </c>
       <c r="C8">
-        <v>7.056414628755664</v>
+        <v>9.533140819660826</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.014006569569251</v>
+        <v>12.17327730461289</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>17.43245090601523</v>
+        <v>27.20008700334839</v>
       </c>
       <c r="H8">
-        <v>8.300713603742411</v>
+        <v>14.11133962519122</v>
       </c>
       <c r="I8">
-        <v>13.31397402960795</v>
+        <v>22.14399487402414</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.61898600744567</v>
+        <v>8.113968029699608</v>
       </c>
       <c r="L8">
-        <v>6.746162476656364</v>
+        <v>9.579701587654904</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.77535810282124</v>
+        <v>21.2317408521174</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.25660294824988</v>
+        <v>11.75056248895487</v>
       </c>
       <c r="C9">
-        <v>7.0466384174752</v>
+        <v>9.509697990146842</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.31929448255846</v>
+        <v>12.1441785454875</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>16.75402663139801</v>
+        <v>26.76512414716085</v>
       </c>
       <c r="H9">
-        <v>7.968524277527357</v>
+        <v>13.97698730285663</v>
       </c>
       <c r="I9">
-        <v>12.60602489782772</v>
+        <v>21.86869778905387</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.02101667220354</v>
+        <v>8.804397219706457</v>
       </c>
       <c r="L9">
-        <v>7.265230626616848</v>
+        <v>9.633792084564174</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.20908443861895</v>
+        <v>20.97454426435046</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.66295915250651</v>
+        <v>12.32326216467891</v>
       </c>
       <c r="C10">
-        <v>7.048244073689694</v>
+        <v>9.496538584056063</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.563796188414621</v>
+        <v>12.13441390799951</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>16.40864716672488</v>
+        <v>26.486872002362</v>
       </c>
       <c r="H10">
-        <v>7.745952626113374</v>
+        <v>13.88821680958858</v>
       </c>
       <c r="I10">
-        <v>12.12944428105089</v>
+        <v>21.68621524692053</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.96053170174593</v>
+        <v>9.273093751893942</v>
       </c>
       <c r="L10">
-        <v>7.639055343177649</v>
+        <v>9.680716621107166</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.8485102908455</v>
+        <v>20.80607928681399</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.26797642806201</v>
+        <v>12.57551472331739</v>
       </c>
       <c r="C11">
-        <v>7.05093932192805</v>
+        <v>9.491426893851381</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.679148873342966</v>
+        <v>12.13248648583461</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>16.29076606545495</v>
+        <v>26.36933312063486</v>
       </c>
       <c r="H11">
-        <v>7.649702197762523</v>
+        <v>13.84997922394826</v>
       </c>
       <c r="I11">
-        <v>11.92293057476705</v>
+        <v>21.60747247785345</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.36782865794292</v>
+        <v>9.477370741204718</v>
       </c>
       <c r="L11">
-        <v>7.806797837098194</v>
+        <v>9.703572084106501</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.69817165671958</v>
+        <v>20.73388433580428</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.49212301534796</v>
+        <v>12.66977033574105</v>
       </c>
       <c r="C12">
-        <v>7.052247140057373</v>
+        <v>9.489616346580739</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.723399578262422</v>
+        <v>12.1321172690557</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>16.25229324154318</v>
+        <v>26.32613068858781</v>
       </c>
       <c r="H12">
-        <v>7.614007407002021</v>
+        <v>13.83580721508231</v>
       </c>
       <c r="I12">
-        <v>11.84629540149828</v>
+        <v>21.57826712289267</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.51914828709733</v>
+        <v>9.553400678062498</v>
       </c>
       <c r="L12">
-        <v>7.869936438718009</v>
+        <v>9.712439071444511</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.64336920149294</v>
+        <v>20.70718427041645</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.44406905825944</v>
+        <v>12.64952819527904</v>
       </c>
       <c r="C13">
-        <v>7.051952630661315</v>
+        <v>9.490000724814864</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.713844474822896</v>
+        <v>12.13218076317439</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>16.2602963075198</v>
+        <v>26.3353768609088</v>
       </c>
       <c r="H13">
-        <v>7.621660821720291</v>
+        <v>13.83884573430057</v>
       </c>
       <c r="I13">
-        <v>11.86272889653083</v>
+        <v>21.58452978046857</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.4866888480847</v>
+        <v>9.537085800326967</v>
       </c>
       <c r="L13">
-        <v>7.856356112023005</v>
+        <v>9.71052005381449</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.65507454420079</v>
+        <v>20.71290620420204</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.28651630317767</v>
+        <v>12.58329499471333</v>
       </c>
       <c r="C14">
-        <v>7.051041134427011</v>
+        <v>9.491275434687401</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.682778139449605</v>
+        <v>12.13244888810653</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>16.28747424780271</v>
+        <v>26.36575259495346</v>
       </c>
       <c r="H14">
-        <v>7.646750256978192</v>
+        <v>13.84880712043312</v>
       </c>
       <c r="I14">
-        <v>11.91659378806076</v>
+        <v>21.60505746007557</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.38033634749151</v>
+        <v>9.483652543341419</v>
       </c>
       <c r="L14">
-        <v>7.812000200643809</v>
+        <v>9.704297354305151</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.69361941210167</v>
+        <v>20.7316749064925</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.1893658050498</v>
+        <v>12.54255809686299</v>
       </c>
       <c r="C15">
-        <v>7.050520355785348</v>
+        <v>9.492072509327059</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.663822503410234</v>
+        <v>12.13266005938777</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>16.30494035943958</v>
+        <v>26.38452903298713</v>
       </c>
       <c r="H15">
-        <v>7.662217447937195</v>
+        <v>13.85494881430199</v>
       </c>
       <c r="I15">
-        <v>11.94979454005904</v>
+        <v>21.617711031808</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.31481216401161</v>
+        <v>9.450749428693747</v>
       </c>
       <c r="L15">
-        <v>7.784779840885362</v>
+        <v>9.700513245438525</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.7175113491453</v>
+        <v>20.74325444486031</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.62272373791772</v>
+        <v>12.30660359926344</v>
       </c>
       <c r="C16">
-        <v>7.048107865942923</v>
+        <v>9.496890190706111</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.556338599074726</v>
+        <v>12.13459039351085</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>16.41718492493468</v>
+        <v>26.49473594643109</v>
       </c>
       <c r="H16">
-        <v>7.752346229654158</v>
+        <v>13.89075882370862</v>
       </c>
       <c r="I16">
-        <v>12.14315459766964</v>
+        <v>21.69144708754297</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.93350716852221</v>
+        <v>9.259560383480467</v>
       </c>
       <c r="L16">
-        <v>7.628042085868593</v>
+        <v>9.679252918986073</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.85862392408845</v>
+        <v>20.81088675523885</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.2662335038203</v>
+        <v>12.15967672002495</v>
       </c>
       <c r="C17">
-        <v>7.047134406727312</v>
+        <v>9.500069243055592</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.491440652910027</v>
+        <v>12.13641802697678</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>16.49645989229867</v>
+        <v>26.56466454574078</v>
       </c>
       <c r="H17">
-        <v>7.808940515581604</v>
+        <v>13.91327590845592</v>
       </c>
       <c r="I17">
-        <v>12.26446713441323</v>
+        <v>21.73777446653091</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.69442141262236</v>
+        <v>9.139952964920163</v>
       </c>
       <c r="L17">
-        <v>7.531259209033993</v>
+        <v>9.666593541037287</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.94880557960408</v>
+        <v>20.85351434427373</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.05791744943609</v>
+        <v>12.07439378801057</v>
       </c>
       <c r="C18">
-        <v>7.046759155999181</v>
+        <v>9.501980108424439</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.454503087066444</v>
+        <v>12.13770598394411</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>16.54571700069222</v>
+        <v>26.60573602047484</v>
       </c>
       <c r="H18">
-        <v>7.84196020288314</v>
+        <v>13.92642903348634</v>
       </c>
       <c r="I18">
-        <v>12.3352048872038</v>
+        <v>21.76482267466392</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.55501523024189</v>
+        <v>9.070318937618136</v>
       </c>
       <c r="L18">
-        <v>7.475377165151389</v>
+        <v>9.659454570113427</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.00195353477579</v>
+        <v>20.87845057118777</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.98682215510271</v>
+        <v>12.04538794025448</v>
       </c>
       <c r="C19">
-        <v>7.046663677071953</v>
+        <v>9.502641258686005</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.442064385243773</v>
+        <v>12.13818275146214</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>16.56300755058558</v>
+        <v>26.6197879578039</v>
       </c>
       <c r="H19">
-        <v>7.853219537707131</v>
+        <v>13.93091715114164</v>
       </c>
       <c r="I19">
-        <v>12.35931825044225</v>
+        <v>21.77404979915036</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.5074909488678</v>
+        <v>9.0465992766953</v>
       </c>
       <c r="L19">
-        <v>7.456421130154157</v>
+        <v>9.657062034603287</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.02016342692174</v>
+        <v>20.88696533483152</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.30452091990712</v>
+        <v>12.17539808164341</v>
       </c>
       <c r="C20">
-        <v>7.047218888349432</v>
+        <v>9.499722308214684</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.498308960702174</v>
+        <v>12.13619897564016</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>16.48763836646787</v>
+        <v>26.55713246329962</v>
       </c>
       <c r="H20">
-        <v>7.802867271788594</v>
+        <v>13.91085803589973</v>
       </c>
       <c r="I20">
-        <v>12.25145305417102</v>
+        <v>21.73280124848449</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.72006836066574</v>
+        <v>9.152772523005556</v>
       </c>
       <c r="L20">
-        <v>7.541584550343386</v>
+        <v>9.667926453602679</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.93907223860465</v>
+        <v>20.84893330671792</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.33292769348268</v>
+        <v>12.60278425161968</v>
       </c>
       <c r="C21">
-        <v>7.051301031463924</v>
+        <v>9.490897630300346</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.691887824261158</v>
+        <v>12.13236035362476</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>16.27931982768992</v>
+        <v>26.356794976376</v>
       </c>
       <c r="H21">
-        <v>7.639360142735478</v>
+        <v>13.84587287309901</v>
       </c>
       <c r="I21">
-        <v>11.90072905671454</v>
+        <v>21.59901135981487</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.41165392249273</v>
+        <v>9.499383449973662</v>
       </c>
       <c r="L21">
-        <v>7.825039331928798</v>
+        <v>9.706119395488894</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.68223875304982</v>
+        <v>20.72614475173409</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.97615656395037</v>
+        <v>12.87469097447437</v>
       </c>
       <c r="C22">
-        <v>7.055645092345711</v>
+        <v>9.485859301189711</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.821708884093315</v>
+        <v>12.13195320081224</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>16.17936483361544</v>
+        <v>26.23348443839835</v>
       </c>
       <c r="H22">
-        <v>7.536908358616007</v>
+        <v>13.80519474011153</v>
       </c>
       <c r="I22">
-        <v>11.68069690952182</v>
+        <v>21.51514345005809</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.84664918507207</v>
+        <v>9.71817373584385</v>
       </c>
       <c r="L22">
-        <v>8.008049318929011</v>
+        <v>9.732314635623601</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.52687084448962</v>
+        <v>20.64961762021699</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.6354847084972</v>
+        <v>12.73027113044791</v>
       </c>
       <c r="C23">
-        <v>7.05317166549993</v>
+        <v>9.488481848064842</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.752126522633343</v>
+        <v>12.1319785678011</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>16.22922436705217</v>
+        <v>26.2985978110718</v>
       </c>
       <c r="H23">
-        <v>7.591172657242291</v>
+        <v>13.82674153597428</v>
       </c>
       <c r="I23">
-        <v>11.79725853613683</v>
+        <v>21.55957889459373</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.61604528837712</v>
+        <v>9.602121409205802</v>
       </c>
       <c r="L23">
-        <v>7.910593450359103</v>
+        <v>9.718222522538198</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.60859373630372</v>
+        <v>20.69012097149927</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.28722166319019</v>
+        <v>12.16829297949656</v>
       </c>
       <c r="C24">
-        <v>7.047180120181847</v>
+        <v>9.499878898298702</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.495202634687008</v>
+        <v>12.13629726975641</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>16.49161515279162</v>
+        <v>26.56053501271761</v>
       </c>
       <c r="H24">
-        <v>7.805611483785839</v>
+        <v>13.91195050889602</v>
       </c>
       <c r="I24">
-        <v>12.25733363159819</v>
+        <v>21.73504835075801</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.70847945532428</v>
+        <v>9.146979507949759</v>
       </c>
       <c r="L24">
-        <v>7.536917208136427</v>
+        <v>9.667323410266931</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.94346864056856</v>
+        <v>20.85100305731368</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.70767292537299</v>
+        <v>11.53289115673614</v>
       </c>
       <c r="C25">
-        <v>7.047758646413891</v>
+        <v>9.515323633790306</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.233071590144226</v>
+        <v>12.15000902618814</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>16.91262868174234</v>
+        <v>26.87556217778073</v>
       </c>
       <c r="H25">
-        <v>8.054718356165786</v>
+        <v>14.01158398043651</v>
       </c>
       <c r="I25">
-        <v>12.79014312445121</v>
+        <v>21.93969236925276</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.65744047331147</v>
+        <v>8.624173744525544</v>
       </c>
       <c r="L25">
-        <v>7.125878946820769</v>
+        <v>9.617880765444999</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.3530454064275</v>
+        <v>21.04052080018431</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_189/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.04316897735902</v>
+        <v>14.43560227866914</v>
       </c>
       <c r="C2">
-        <v>9.529429008432901</v>
+        <v>7.054067935254725</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.16791198099106</v>
+        <v>8.05376192255325</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>27.13523703743409</v>
+        <v>17.32307814015751</v>
       </c>
       <c r="H2">
-        <v>14.09162271049592</v>
+        <v>8.252434540802014</v>
       </c>
       <c r="I2">
-        <v>22.10366211504292</v>
+        <v>13.21137191446614</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.213575834162331</v>
+        <v>11.82294111733375</v>
       </c>
       <c r="L2">
-        <v>9.586326816507942</v>
+        <v>6.818467172398177</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.19383117810419</v>
+        <v>12.69123097507906</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.6995885704849</v>
+        <v>13.50491266302484</v>
       </c>
       <c r="C3">
-        <v>9.540705181381357</v>
+        <v>7.061928595374657</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.18492036722794</v>
+        <v>7.941137141990027</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>27.32840882419302</v>
+        <v>17.65549846675122</v>
       </c>
       <c r="H3">
-        <v>14.15005147322406</v>
+        <v>8.39494383098884</v>
       </c>
       <c r="I3">
-        <v>22.2231134193017</v>
+        <v>13.51392168412191</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.920408900012639</v>
+        <v>11.22068704378812</v>
       </c>
       <c r="L3">
-        <v>9.56803872377392</v>
+        <v>6.608412130743275</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.30633428474998</v>
+        <v>12.9411659128782</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.48361665991746</v>
+        <v>12.89948954932606</v>
       </c>
       <c r="C4">
-        <v>9.54847954306752</v>
+        <v>7.068495564278088</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.19776890279291</v>
+        <v>7.876468075836004</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>27.45546099089296</v>
+        <v>17.88381981912015</v>
       </c>
       <c r="H4">
-        <v>14.18799800524847</v>
+        <v>8.486534274565868</v>
       </c>
       <c r="I4">
-        <v>22.30057657730751</v>
+        <v>13.70785905270851</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.752130752249724</v>
+        <v>10.83332570455622</v>
       </c>
       <c r="L4">
-        <v>9.558358605380223</v>
+        <v>6.479065397962308</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.37965994831082</v>
+        <v>13.10426115255504</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.39447099811017</v>
+        <v>12.64421801430371</v>
       </c>
       <c r="C5">
-        <v>9.551862181734789</v>
+        <v>7.071605315393873</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.20360963937804</v>
+        <v>7.851254024405409</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>27.50935391524095</v>
+        <v>17.98259886274605</v>
       </c>
       <c r="H5">
-        <v>14.2039831692937</v>
+        <v>8.524871685578248</v>
       </c>
       <c r="I5">
-        <v>22.33318095241362</v>
+        <v>13.78891202174917</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.686700183262405</v>
+        <v>10.67115478267166</v>
       </c>
       <c r="L5">
-        <v>9.554806492871132</v>
+        <v>6.426339464817592</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.41060959123456</v>
+        <v>13.17306615573519</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.37960370474882</v>
+        <v>12.60131331681906</v>
       </c>
       <c r="C6">
-        <v>9.55243684031656</v>
+        <v>7.072147762719319</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.20461601829741</v>
+        <v>7.847136327585461</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>27.51843057665337</v>
+        <v>17.99933769061395</v>
       </c>
       <c r="H6">
-        <v>14.20666902530183</v>
+        <v>8.531298406551665</v>
       </c>
       <c r="I6">
-        <v>22.33865759496475</v>
+        <v>13.80249206500653</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.675783322455717</v>
+        <v>10.64396900753628</v>
       </c>
       <c r="L6">
-        <v>9.55424046660373</v>
+        <v>6.417585740748533</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.41581332879068</v>
+        <v>13.18463045686794</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.48241883486052</v>
+        <v>12.89608152660194</v>
       </c>
       <c r="C7">
-        <v>9.54852429313137</v>
+        <v>7.068535752855743</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.19784522406672</v>
+        <v>7.876123404983659</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>27.45617924016707</v>
+        <v>17.88512920895791</v>
       </c>
       <c r="H7">
-        <v>14.18821147348513</v>
+        <v>8.487047220424596</v>
       </c>
       <c r="I7">
-        <v>22.30101208831493</v>
+        <v>13.70894401414461</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.751251889099764</v>
+        <v>10.83115594493341</v>
       </c>
       <c r="L7">
-        <v>9.558309106719548</v>
+        <v>6.478354277140067</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.38007301753582</v>
+        <v>13.1051796967421</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.92581461135019</v>
+        <v>14.12174218093904</v>
       </c>
       <c r="C8">
-        <v>9.533140819660826</v>
+        <v>7.056414628755786</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.17327730461289</v>
+        <v>8.014006569569288</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>27.20008700334839</v>
+        <v>17.43245090601535</v>
       </c>
       <c r="H8">
-        <v>14.11133962519122</v>
+        <v>8.300713603742468</v>
       </c>
       <c r="I8">
-        <v>22.14399487402414</v>
+        <v>13.31397402960811</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.113968029699608</v>
+        <v>11.61898600744569</v>
       </c>
       <c r="L8">
-        <v>9.579701587654904</v>
+        <v>6.746162476656351</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.2317408521174</v>
+        <v>12.77535810282133</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.75056248895487</v>
+        <v>16.25660294824987</v>
       </c>
       <c r="C9">
-        <v>9.509697990146842</v>
+        <v>7.046638417475301</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.1441785454875</v>
+        <v>8.319294482558455</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>26.76512414716085</v>
+        <v>16.75402663139783</v>
       </c>
       <c r="H9">
-        <v>13.97698730285663</v>
+        <v>7.968524277527422</v>
       </c>
       <c r="I9">
-        <v>21.86869778905387</v>
+        <v>12.60602489782772</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.804397219706457</v>
+        <v>13.02101667220352</v>
       </c>
       <c r="L9">
-        <v>9.633792084564174</v>
+        <v>7.265230626616813</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.97454426435046</v>
+        <v>12.20908443861889</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.32326216467891</v>
+        <v>17.66295915250652</v>
       </c>
       <c r="C10">
-        <v>9.496538584056063</v>
+        <v>7.048244073689935</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.13441390799951</v>
+        <v>8.563796188414646</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>26.486872002362</v>
+        <v>16.4086471667249</v>
       </c>
       <c r="H10">
-        <v>13.88821680958858</v>
+        <v>7.745952626113381</v>
       </c>
       <c r="I10">
-        <v>21.68621524692053</v>
+        <v>12.12944428105093</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.273093751893942</v>
+        <v>13.96053170174598</v>
       </c>
       <c r="L10">
-        <v>9.680716621107166</v>
+        <v>7.639055343177607</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.80607928681399</v>
+        <v>11.84851029084551</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.57551472331739</v>
+        <v>18.26797642806204</v>
       </c>
       <c r="C11">
-        <v>9.491426893851381</v>
+        <v>7.050939321927774</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.13248648583461</v>
+        <v>8.679148873342903</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>26.36933312063486</v>
+        <v>16.29076606545501</v>
       </c>
       <c r="H11">
-        <v>13.84997922394826</v>
+        <v>7.649702197762531</v>
       </c>
       <c r="I11">
-        <v>21.60747247785345</v>
+        <v>11.92293057476704</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.477370741204718</v>
+        <v>14.36782865794288</v>
       </c>
       <c r="L11">
-        <v>9.703572084106501</v>
+        <v>7.806797837098184</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.73388433580428</v>
+        <v>11.6981716567196</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.66977033574105</v>
+        <v>18.49212301534803</v>
       </c>
       <c r="C12">
-        <v>9.489616346580739</v>
+        <v>7.052247140056983</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.1321172690557</v>
+        <v>8.723399578262402</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>26.32613068858781</v>
+        <v>16.25229324154338</v>
       </c>
       <c r="H12">
-        <v>13.83580721508231</v>
+        <v>7.614007407002031</v>
       </c>
       <c r="I12">
-        <v>21.57826712289267</v>
+        <v>11.8462954014983</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.553400678062498</v>
+        <v>14.51914828709732</v>
       </c>
       <c r="L12">
-        <v>9.712439071444511</v>
+        <v>7.869936438718026</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.70718427041645</v>
+        <v>11.64336920149304</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.64952819527904</v>
+        <v>18.44406905825945</v>
       </c>
       <c r="C13">
-        <v>9.490000724814864</v>
+        <v>7.05195263066118</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.13218076317439</v>
+        <v>8.713844474822871</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>26.3353768609088</v>
+        <v>16.26029630751965</v>
       </c>
       <c r="H13">
-        <v>13.83884573430057</v>
+        <v>7.621660821720286</v>
       </c>
       <c r="I13">
-        <v>21.58452978046857</v>
+        <v>11.8627288965307</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.537085800326967</v>
+        <v>14.48668884808467</v>
       </c>
       <c r="L13">
-        <v>9.71052005381449</v>
+        <v>7.85635611202302</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.71290620420204</v>
+        <v>11.6550745442007</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.58329499471333</v>
+        <v>18.28651630317761</v>
       </c>
       <c r="C14">
-        <v>9.491275434687401</v>
+        <v>7.051041134427252</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.13244888810653</v>
+        <v>8.682778139449589</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>26.36575259495346</v>
+        <v>16.28747424780288</v>
       </c>
       <c r="H14">
-        <v>13.84880712043312</v>
+        <v>7.646750256978311</v>
       </c>
       <c r="I14">
-        <v>21.60505746007557</v>
+        <v>11.91659378806094</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.483652543341419</v>
+        <v>14.38033634749146</v>
       </c>
       <c r="L14">
-        <v>9.704297354305151</v>
+        <v>7.812000200643777</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.7316749064925</v>
+        <v>11.69361941210181</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.54255809686299</v>
+        <v>18.18936580504979</v>
       </c>
       <c r="C15">
-        <v>9.492072509327059</v>
+        <v>7.050520355785213</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.13266005938777</v>
+        <v>8.663822503410195</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>26.38452903298713</v>
+        <v>16.30494035943976</v>
       </c>
       <c r="H15">
-        <v>13.85494881430199</v>
+        <v>7.662217447937141</v>
       </c>
       <c r="I15">
-        <v>21.617711031808</v>
+        <v>11.94979454005905</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.450749428693747</v>
+        <v>14.31481216401157</v>
       </c>
       <c r="L15">
-        <v>9.700513245438525</v>
+        <v>7.784779840885355</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.74325444486031</v>
+        <v>11.71751134914536</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.30660359926344</v>
+        <v>17.6227237379177</v>
       </c>
       <c r="C16">
-        <v>9.496890190706111</v>
+        <v>7.048107865943143</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.13459039351085</v>
+        <v>8.556338599074696</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>26.49473594643109</v>
+        <v>16.41718492493454</v>
       </c>
       <c r="H16">
-        <v>13.89075882370862</v>
+        <v>7.752346229654113</v>
       </c>
       <c r="I16">
-        <v>21.69144708754297</v>
+        <v>12.14315459766957</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.259560383480467</v>
+        <v>13.9335071685222</v>
       </c>
       <c r="L16">
-        <v>9.679252918986073</v>
+        <v>7.628042085868541</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.81088675523885</v>
+        <v>11.85862392408834</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.15967672002495</v>
+        <v>17.26623350382027</v>
       </c>
       <c r="C17">
-        <v>9.500069243055592</v>
+        <v>7.047134406727299</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.13641802697678</v>
+        <v>8.491440652910079</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>26.56466454574078</v>
+        <v>16.49645989229846</v>
       </c>
       <c r="H17">
-        <v>13.91327590845592</v>
+        <v>7.808940515581611</v>
       </c>
       <c r="I17">
-        <v>21.73777446653091</v>
+        <v>12.26446713441319</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.139952964920163</v>
+        <v>13.69442141262232</v>
       </c>
       <c r="L17">
-        <v>9.666593541037287</v>
+        <v>7.531259209033969</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.85351434427373</v>
+        <v>11.94880557960399</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.07439378801057</v>
+        <v>17.05791744943614</v>
       </c>
       <c r="C18">
-        <v>9.501980108424439</v>
+        <v>7.046759155999162</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.13770598394411</v>
+        <v>8.454503087066453</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>26.60573602047484</v>
+        <v>16.54571700069211</v>
       </c>
       <c r="H18">
-        <v>13.92642903348634</v>
+        <v>7.84196020288315</v>
       </c>
       <c r="I18">
-        <v>21.76482267466392</v>
+        <v>12.33520488720374</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.070318937618136</v>
+        <v>13.55501523024191</v>
       </c>
       <c r="L18">
-        <v>9.659454570113427</v>
+        <v>7.47537716515137</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.87845057118777</v>
+        <v>12.00195353477573</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.04538794025448</v>
+        <v>16.98682215510278</v>
       </c>
       <c r="C19">
-        <v>9.502641258686005</v>
+        <v>7.046663677071681</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.13818275146214</v>
+        <v>8.442064385243746</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>26.6197879578039</v>
+        <v>16.56300755058558</v>
       </c>
       <c r="H19">
-        <v>13.93091715114164</v>
+        <v>7.853219537707014</v>
       </c>
       <c r="I19">
-        <v>21.77404979915036</v>
+        <v>12.35931825044205</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.0465992766953</v>
+        <v>13.50749094886779</v>
       </c>
       <c r="L19">
-        <v>9.657062034603287</v>
+        <v>7.456421130154169</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.88696533483152</v>
+        <v>12.02016342692165</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.17539808164341</v>
+        <v>17.30452091990719</v>
       </c>
       <c r="C20">
-        <v>9.499722308214684</v>
+        <v>7.047218888349304</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.13619897564016</v>
+        <v>8.49830896070211</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>26.55713246329962</v>
+        <v>16.4876383664676</v>
       </c>
       <c r="H20">
-        <v>13.91085803589973</v>
+        <v>7.802867271788476</v>
       </c>
       <c r="I20">
-        <v>21.73280124848449</v>
+        <v>12.25145305417082</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.152772523005556</v>
+        <v>13.7200683606658</v>
       </c>
       <c r="L20">
-        <v>9.667926453602679</v>
+        <v>7.541584550343386</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.84893330671792</v>
+        <v>11.93907223860449</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.60278425161968</v>
+        <v>18.33292769348277</v>
       </c>
       <c r="C21">
-        <v>9.490897630300346</v>
+        <v>7.051301031463902</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.13236035362476</v>
+        <v>8.691887824261215</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>26.356794976376</v>
+        <v>16.27931982768961</v>
       </c>
       <c r="H21">
-        <v>13.84587287309901</v>
+        <v>7.639360142735418</v>
       </c>
       <c r="I21">
-        <v>21.59901135981487</v>
+        <v>11.90072905671433</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.499383449973662</v>
+        <v>14.41165392249281</v>
       </c>
       <c r="L21">
-        <v>9.706119395488894</v>
+        <v>7.825039331928813</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.72614475173409</v>
+        <v>11.68223875304961</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.87469097447437</v>
+        <v>18.97615656395035</v>
       </c>
       <c r="C22">
-        <v>9.485859301189711</v>
+        <v>7.055645092345829</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.13195320081224</v>
+        <v>8.821708884093388</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>26.23348443839835</v>
+        <v>16.17936483361536</v>
       </c>
       <c r="H22">
-        <v>13.80519474011153</v>
+        <v>7.536908358616011</v>
       </c>
       <c r="I22">
-        <v>21.51514345005809</v>
+        <v>11.68069690952182</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.71817373584385</v>
+        <v>14.84664918507207</v>
       </c>
       <c r="L22">
-        <v>9.732314635623601</v>
+        <v>8.008049318929022</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.64961762021699</v>
+        <v>11.52687084448957</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.73027113044791</v>
+        <v>18.6354847084972</v>
       </c>
       <c r="C23">
-        <v>9.488481848064842</v>
+        <v>7.053171665500019</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.1319785678011</v>
+        <v>8.752126522633361</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>26.2985978110718</v>
+        <v>16.22922436705231</v>
       </c>
       <c r="H23">
-        <v>13.82674153597428</v>
+        <v>7.591172657242303</v>
       </c>
       <c r="I23">
-        <v>21.55957889459373</v>
+        <v>11.79725853613692</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.602121409205802</v>
+        <v>14.6160452883771</v>
       </c>
       <c r="L23">
-        <v>9.718222522538198</v>
+        <v>7.910593450359124</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.69012097149927</v>
+        <v>11.60859373630377</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.16829297949656</v>
+        <v>17.28722166319028</v>
       </c>
       <c r="C24">
-        <v>9.499878898298702</v>
+        <v>7.047180120181718</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.13629726975641</v>
+        <v>8.495202634686896</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>26.56053501271761</v>
+        <v>16.49161515279128</v>
       </c>
       <c r="H24">
-        <v>13.91195050889602</v>
+        <v>7.805611483785654</v>
       </c>
       <c r="I24">
-        <v>21.73504835075801</v>
+        <v>12.25733363159789</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.146979507949759</v>
+        <v>13.70847945532436</v>
       </c>
       <c r="L24">
-        <v>9.667323410266931</v>
+        <v>7.536917208136383</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.85100305731368</v>
+        <v>11.94346864056829</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.53289115673614</v>
+        <v>15.70767292537298</v>
       </c>
       <c r="C25">
-        <v>9.515323633790306</v>
+        <v>7.047758646414283</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.15000902618814</v>
+        <v>8.233071590144309</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>26.87556217778073</v>
+        <v>16.91262868174212</v>
       </c>
       <c r="H25">
-        <v>14.01158398043651</v>
+        <v>8.054718356165848</v>
       </c>
       <c r="I25">
-        <v>21.93969236925276</v>
+        <v>12.79014312445124</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.624173744525544</v>
+        <v>12.65744047331151</v>
       </c>
       <c r="L25">
-        <v>9.617880765444999</v>
+        <v>7.125878946820774</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.04052080018431</v>
+        <v>12.35304540642744</v>
       </c>
     </row>
   </sheetData>
